--- a/mock/sponsors_mock.xlsx
+++ b/mock/sponsors_mock.xlsx
@@ -167,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="53">
   <si>
     <t xml:space="preserve">Tabulka našich skvělých oslovovatelů</t>
   </si>
@@ -217,6 +217,12 @@
     <t xml:space="preserve">jiné (poznámka)</t>
   </si>
   <si>
+    <t xml:space="preserve">nitrámek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tomík</t>
+  </si>
+  <si>
     <t xml:space="preserve">jméno společnosti </t>
   </si>
   <si>
@@ -244,6 +250,9 @@
     <t xml:space="preserve">finální plnění</t>
   </si>
   <si>
+    <t xml:space="preserve">web url</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wube Software</t>
   </si>
   <si>
@@ -259,10 +268,25 @@
     <t xml:space="preserve">Penízky + klíče ke hře "Kingdom Come: Deliverance 1 a 2"</t>
   </si>
   <si>
+    <t xml:space="preserve">https://warhorsestudios.cz/en/</t>
+  </si>
+  <si>
     <t xml:space="preserve">H-centrum</t>
   </si>
   <si>
     <t xml:space="preserve">Poukaz 500 Kč</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BoyKisser NFT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">krásné obrázky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kejtotoč</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kejta a točítko</t>
   </si>
   <si>
     <t xml:space="preserve">Očekávaný výsledek</t>
@@ -314,7 +338,7 @@
     <numFmt numFmtId="166" formatCode="#,##0"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.00&quot; Kč&quot;_-;\-* #,##0.00&quot; Kč&quot;_-;_-* \-??&quot; Kč&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,14 +367,12 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="1"/>
@@ -360,12 +382,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -379,6 +395,21 @@
       <u val="single"/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="1"/>
@@ -469,11 +500,11 @@
     </xf>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -490,15 +521,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -510,7 +545,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -518,7 +553,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -526,31 +569,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -887,7 +934,7 @@
   <dimension ref="A1:P65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W7" activeCellId="0" sqref="W7"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.63671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -905,9 +952,18 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
       <c r="I1" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
       <c r="L1" s="3" t="s">
         <v>2</v>
       </c>
@@ -919,455 +975,533 @@
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="2" t="n">
+      <c r="J2" s="4" t="n">
         <f aca="false">COUNTIF('Oslovované firmy'!D:D,I2)</f>
         <v>0</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="K2" s="4"/>
+      <c r="L2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="10" t="n">
+      <c r="M2" s="11" t="n">
         <f aca="false">SUMIFS('Oslovované firmy'!F:F,'Oslovované firmy'!E:E,P2,'Oslovované firmy'!D:D,$I$4)+SUMIFS('Oslovované firmy'!F:F,'Oslovované firmy'!E:E,$P$4,'Oslovované firmy'!D:D,$I$4)</f>
         <v>0</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="4" t="n">
         <f aca="false">IF(A3="","",COUNTIF('Oslovované firmy'!C:C,A3))</f>
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="4" t="n">
         <f aca="false">IF($A3="","",COUNTIFS('Oslovované firmy'!$D:$D,C$2,'Oslovované firmy'!$C:$C,$A3))</f>
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="4" t="n">
         <f aca="false">IF($A3="","",COUNTIFS('Oslovované firmy'!$D:$D,D$2,'Oslovované firmy'!$C:$C,$A3))</f>
         <v>0</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="4" t="n">
         <f aca="false">IF($A3="","",COUNTIFS('Oslovované firmy'!$D:$D,E$2,'Oslovované firmy'!$C:$C,$A3))</f>
         <v>0</v>
       </c>
-      <c r="F3" s="2" t="n">
+      <c r="F3" s="4" t="n">
         <f aca="false">IF($A3="","",COUNTIFS('Oslovované firmy'!$D:$D,F$2,'Oslovované firmy'!$C:$C,$A3))</f>
         <v>0</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="G3" s="4" t="n">
         <f aca="false">IF($A3="","",COUNTIFS('Oslovované firmy'!$D:$D,G$2,'Oslovované firmy'!$C:$C,$A3))</f>
         <v>0</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="H3" s="4"/>
+      <c r="I3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="2" t="n">
+      <c r="J3" s="4" t="n">
         <f aca="false">COUNTIF('Oslovované firmy'!D:D,I3)</f>
         <v>0</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="K3" s="4"/>
+      <c r="L3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="12" t="n">
+      <c r="M3" s="15" t="n">
         <f aca="false">SUMIFS('Oslovované firmy'!G:G,'Oslovované firmy'!E:E,P3,'Oslovované firmy'!D:D,$I$4)+SUMIFS('Oslovované firmy'!G:G,'Oslovované firmy'!E:E,$P$4,'Oslovované firmy'!D:D,$I$4)</f>
         <v>0</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="P3" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="4" t="n">
         <f aca="false">IF(A4="","",COUNTIF('Oslovované firmy'!C:C,A4))</f>
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="4" t="n">
         <f aca="false">IF($A4="","",COUNTIFS('Oslovované firmy'!$D:$D,C$2,'Oslovované firmy'!$C:$C,$A4))</f>
         <v>0</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="4" t="n">
         <f aca="false">IF($A4="","",COUNTIFS('Oslovované firmy'!$D:$D,D$2,'Oslovované firmy'!$C:$C,$A4))</f>
         <v>0</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="4" t="n">
         <f aca="false">IF($A4="","",COUNTIFS('Oslovované firmy'!$D:$D,E$2,'Oslovované firmy'!$C:$C,$A4))</f>
         <v>0</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="4" t="n">
         <f aca="false">IF($A4="","",COUNTIFS('Oslovované firmy'!$D:$D,F$2,'Oslovované firmy'!$C:$C,$A4))</f>
         <v>0</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" s="4" t="n">
         <f aca="false">IF($A4="","",COUNTIFS('Oslovované firmy'!$D:$D,G$2,'Oslovované firmy'!$C:$C,$A4))</f>
         <v>0</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="H4" s="4"/>
+      <c r="I4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="2" t="n">
+      <c r="J4" s="4" t="n">
         <f aca="false">COUNTIF('Oslovované firmy'!D:D,I4)</f>
-        <v>3</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
       <c r="P4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="4" t="n">
         <f aca="false">IF(A5="","",COUNTIF('Oslovované firmy'!C:C,A5))</f>
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="n">
         <f aca="false">IF($A5="","",COUNTIFS('Oslovované firmy'!$D:$D,C$2,'Oslovované firmy'!$C:$C,$A5))</f>
         <v>0</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="4" t="n">
         <f aca="false">IF($A5="","",COUNTIFS('Oslovované firmy'!$D:$D,D$2,'Oslovované firmy'!$C:$C,$A5))</f>
         <v>0</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="4" t="n">
         <f aca="false">IF($A5="","",COUNTIFS('Oslovované firmy'!$D:$D,E$2,'Oslovované firmy'!$C:$C,$A5))</f>
-        <v>2</v>
-      </c>
-      <c r="F5" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4" t="n">
         <f aca="false">IF($A5="","",COUNTIFS('Oslovované firmy'!$D:$D,F$2,'Oslovované firmy'!$C:$C,$A5))</f>
         <v>0</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="4" t="n">
         <f aca="false">IF($A5="","",COUNTIFS('Oslovované firmy'!$D:$D,G$2,'Oslovované firmy'!$C:$C,$A5))</f>
         <v>0</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="H5" s="4"/>
+      <c r="I5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="2" t="n">
+      <c r="J5" s="4" t="n">
         <f aca="false">COUNTIF('Oslovované firmy'!D:D,I5)</f>
         <v>0</v>
       </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
       <c r="P5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="2" t="str">
+      <c r="A6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="n">
         <f aca="false">IF(A6="","",COUNTIF('Oslovované firmy'!C:C,A6))</f>
-        <v/>
-      </c>
-      <c r="C6" s="2" t="str">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="n">
         <f aca="false">IF($A6="","",COUNTIFS('Oslovované firmy'!$D:$D,C$2,'Oslovované firmy'!$C:$C,$A6))</f>
-        <v/>
-      </c>
-      <c r="D6" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="n">
         <f aca="false">IF($A6="","",COUNTIFS('Oslovované firmy'!$D:$D,D$2,'Oslovované firmy'!$C:$C,$A6))</f>
-        <v/>
-      </c>
-      <c r="E6" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="n">
         <f aca="false">IF($A6="","",COUNTIFS('Oslovované firmy'!$D:$D,E$2,'Oslovované firmy'!$C:$C,$A6))</f>
-        <v/>
-      </c>
-      <c r="F6" s="2" t="str">
+        <v>5</v>
+      </c>
+      <c r="F6" s="4" t="n">
         <f aca="false">IF($A6="","",COUNTIFS('Oslovované firmy'!$D:$D,F$2,'Oslovované firmy'!$C:$C,$A6))</f>
-        <v/>
-      </c>
-      <c r="G6" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="n">
         <f aca="false">IF($A6="","",COUNTIFS('Oslovované firmy'!$D:$D,G$2,'Oslovované firmy'!$C:$C,$A6))</f>
-        <v/>
-      </c>
-      <c r="I6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="2" t="n">
+      <c r="J6" s="4" t="n">
         <f aca="false">COUNTIF('Oslovované firmy'!D:D,I6)</f>
         <v>0</v>
       </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="2" t="str">
+      <c r="A7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="4" t="n">
         <f aca="false">IF(A7="","",COUNTIF('Oslovované firmy'!C:C,A7))</f>
-        <v/>
-      </c>
-      <c r="C7" s="2" t="str">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="n">
         <f aca="false">IF($A7="","",COUNTIFS('Oslovované firmy'!$D:$D,C$2,'Oslovované firmy'!$C:$C,$A7))</f>
-        <v/>
-      </c>
-      <c r="D7" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4" t="n">
         <f aca="false">IF($A7="","",COUNTIFS('Oslovované firmy'!$D:$D,D$2,'Oslovované firmy'!$C:$C,$A7))</f>
-        <v/>
-      </c>
-      <c r="E7" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4" t="n">
         <f aca="false">IF($A7="","",COUNTIFS('Oslovované firmy'!$D:$D,E$2,'Oslovované firmy'!$C:$C,$A7))</f>
-        <v/>
-      </c>
-      <c r="F7" s="2" t="str">
+        <v>5</v>
+      </c>
+      <c r="F7" s="4" t="n">
         <f aca="false">IF($A7="","",COUNTIFS('Oslovované firmy'!$D:$D,F$2,'Oslovované firmy'!$C:$C,$A7))</f>
-        <v/>
-      </c>
-      <c r="G7" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="n">
         <f aca="false">IF($A7="","",COUNTIFS('Oslovované firmy'!$D:$D,G$2,'Oslovované firmy'!$C:$C,$A7))</f>
-        <v/>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="2" t="str">
+      <c r="A8" s="13"/>
+      <c r="B8" s="4" t="str">
         <f aca="false">IF(A8="","",COUNTIF('Oslovované firmy'!C:C,A8))</f>
         <v/>
       </c>
-      <c r="C8" s="2" t="str">
+      <c r="C8" s="4" t="str">
         <f aca="false">IF($A8="","",COUNTIFS('Oslovované firmy'!$D:$D,C$2,'Oslovované firmy'!$C:$C,$A8))</f>
         <v/>
       </c>
-      <c r="D8" s="2" t="str">
+      <c r="D8" s="4" t="str">
         <f aca="false">IF($A8="","",COUNTIFS('Oslovované firmy'!$D:$D,D$2,'Oslovované firmy'!$C:$C,$A8))</f>
         <v/>
       </c>
-      <c r="E8" s="2" t="str">
+      <c r="E8" s="4" t="str">
         <f aca="false">IF($A8="","",COUNTIFS('Oslovované firmy'!$D:$D,E$2,'Oslovované firmy'!$C:$C,$A8))</f>
         <v/>
       </c>
-      <c r="F8" s="2" t="str">
+      <c r="F8" s="4" t="str">
         <f aca="false">IF($A8="","",COUNTIFS('Oslovované firmy'!$D:$D,F$2,'Oslovované firmy'!$C:$C,$A8))</f>
         <v/>
       </c>
-      <c r="G8" s="2" t="str">
+      <c r="G8" s="4" t="str">
         <f aca="false">IF($A8="","",COUNTIFS('Oslovované firmy'!$D:$D,G$2,'Oslovované firmy'!$C:$C,$A8))</f>
         <v/>
       </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="2" t="str">
+      <c r="A9" s="13"/>
+      <c r="B9" s="4" t="str">
         <f aca="false">IF(A9="","",COUNTIF('Oslovované firmy'!C:C,A9))</f>
         <v/>
       </c>
-      <c r="C9" s="2" t="str">
+      <c r="C9" s="4" t="str">
         <f aca="false">IF($A9="","",COUNTIFS('Oslovované firmy'!$D:$D,C$2,'Oslovované firmy'!$C:$C,$A9))</f>
         <v/>
       </c>
-      <c r="D9" s="2" t="str">
+      <c r="D9" s="4" t="str">
         <f aca="false">IF($A9="","",COUNTIFS('Oslovované firmy'!$D:$D,D$2,'Oslovované firmy'!$C:$C,$A9))</f>
         <v/>
       </c>
-      <c r="E9" s="2" t="str">
+      <c r="E9" s="4" t="str">
         <f aca="false">IF($A9="","",COUNTIFS('Oslovované firmy'!$D:$D,E$2,'Oslovované firmy'!$C:$C,$A9))</f>
         <v/>
       </c>
-      <c r="F9" s="2" t="str">
+      <c r="F9" s="4" t="str">
         <f aca="false">IF($A9="","",COUNTIFS('Oslovované firmy'!$D:$D,F$2,'Oslovované firmy'!$C:$C,$A9))</f>
         <v/>
       </c>
-      <c r="G9" s="2" t="str">
+      <c r="G9" s="4" t="str">
         <f aca="false">IF($A9="","",COUNTIFS('Oslovované firmy'!$D:$D,G$2,'Oslovované firmy'!$C:$C,$A9))</f>
         <v/>
       </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="2" t="str">
+      <c r="A10" s="13"/>
+      <c r="B10" s="4" t="str">
         <f aca="false">IF(A10="","",COUNTIF('Oslovované firmy'!C:C,A10))</f>
         <v/>
       </c>
-      <c r="C10" s="2" t="str">
+      <c r="C10" s="4" t="str">
         <f aca="false">IF($A10="","",COUNTIFS('Oslovované firmy'!$D:$D,C$2,'Oslovované firmy'!$C:$C,$A10))</f>
         <v/>
       </c>
-      <c r="D10" s="2" t="str">
+      <c r="D10" s="4" t="str">
         <f aca="false">IF($A10="","",COUNTIFS('Oslovované firmy'!$D:$D,D$2,'Oslovované firmy'!$C:$C,$A10))</f>
         <v/>
       </c>
-      <c r="E10" s="2" t="str">
+      <c r="E10" s="4" t="str">
         <f aca="false">IF($A10="","",COUNTIFS('Oslovované firmy'!$D:$D,E$2,'Oslovované firmy'!$C:$C,$A10))</f>
         <v/>
       </c>
-      <c r="F10" s="2" t="str">
+      <c r="F10" s="4" t="str">
         <f aca="false">IF($A10="","",COUNTIFS('Oslovované firmy'!$D:$D,F$2,'Oslovované firmy'!$C:$C,$A10))</f>
         <v/>
       </c>
-      <c r="G10" s="2" t="str">
+      <c r="G10" s="4" t="str">
         <f aca="false">IF($A10="","",COUNTIFS('Oslovované firmy'!$D:$D,G$2,'Oslovované firmy'!$C:$C,$A10))</f>
         <v/>
       </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="2" t="str">
+      <c r="A11" s="13"/>
+      <c r="B11" s="4" t="str">
         <f aca="false">IF(A11="","",COUNTIF('Oslovované firmy'!C:C,A11))</f>
         <v/>
       </c>
-      <c r="C11" s="2" t="str">
+      <c r="C11" s="4" t="str">
         <f aca="false">IF($A11="","",COUNTIFS('Oslovované firmy'!$D:$D,C$2,'Oslovované firmy'!$C:$C,$A11))</f>
         <v/>
       </c>
-      <c r="D11" s="2" t="str">
+      <c r="D11" s="4" t="str">
         <f aca="false">IF($A11="","",COUNTIFS('Oslovované firmy'!$D:$D,D$2,'Oslovované firmy'!$C:$C,$A11))</f>
         <v/>
       </c>
-      <c r="E11" s="2" t="str">
+      <c r="E11" s="4" t="str">
         <f aca="false">IF($A11="","",COUNTIFS('Oslovované firmy'!$D:$D,E$2,'Oslovované firmy'!$C:$C,$A11))</f>
         <v/>
       </c>
-      <c r="F11" s="2" t="str">
+      <c r="F11" s="4" t="str">
         <f aca="false">IF($A11="","",COUNTIFS('Oslovované firmy'!$D:$D,F$2,'Oslovované firmy'!$C:$C,$A11))</f>
         <v/>
       </c>
-      <c r="G11" s="2" t="str">
+      <c r="G11" s="4" t="str">
         <f aca="false">IF($A11="","",COUNTIFS('Oslovované firmy'!$D:$D,G$2,'Oslovované firmy'!$C:$C,$A11))</f>
         <v/>
       </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="2" t="str">
+      <c r="A12" s="13"/>
+      <c r="B12" s="4" t="str">
         <f aca="false">IF(A12="","",COUNTIF('Oslovované firmy'!C:C,A12))</f>
         <v/>
       </c>
-      <c r="C12" s="2" t="str">
+      <c r="C12" s="4" t="str">
         <f aca="false">IF($A12="","",COUNTIFS('Oslovované firmy'!$D:$D,C$2,'Oslovované firmy'!$C:$C,$A12))</f>
         <v/>
       </c>
-      <c r="D12" s="2" t="str">
+      <c r="D12" s="4" t="str">
         <f aca="false">IF($A12="","",COUNTIFS('Oslovované firmy'!$D:$D,D$2,'Oslovované firmy'!$C:$C,$A12))</f>
         <v/>
       </c>
-      <c r="E12" s="2" t="str">
+      <c r="E12" s="4" t="str">
         <f aca="false">IF($A12="","",COUNTIFS('Oslovované firmy'!$D:$D,E$2,'Oslovované firmy'!$C:$C,$A12))</f>
         <v/>
       </c>
-      <c r="F12" s="2" t="str">
+      <c r="F12" s="4" t="str">
         <f aca="false">IF($A12="","",COUNTIFS('Oslovované firmy'!$D:$D,F$2,'Oslovované firmy'!$C:$C,$A12))</f>
         <v/>
       </c>
-      <c r="G12" s="2" t="str">
+      <c r="G12" s="4" t="str">
         <f aca="false">IF($A12="","",COUNTIFS('Oslovované firmy'!$D:$D,G$2,'Oslovované firmy'!$C:$C,$A12))</f>
         <v/>
       </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="2" t="str">
+      <c r="A13" s="13"/>
+      <c r="B13" s="4" t="str">
         <f aca="false">IF(A13="","",COUNTIF('Oslovované firmy'!C:C,A13))</f>
         <v/>
       </c>
-      <c r="C13" s="2" t="str">
+      <c r="C13" s="4" t="str">
         <f aca="false">IF($A13="","",COUNTIFS('Oslovované firmy'!$D:$D,C$2,'Oslovované firmy'!$C:$C,$A13))</f>
         <v/>
       </c>
-      <c r="D13" s="2" t="str">
+      <c r="D13" s="4" t="str">
         <f aca="false">IF($A13="","",COUNTIFS('Oslovované firmy'!$D:$D,D$2,'Oslovované firmy'!$C:$C,$A13))</f>
         <v/>
       </c>
-      <c r="E13" s="2" t="str">
+      <c r="E13" s="4" t="str">
         <f aca="false">IF($A13="","",COUNTIFS('Oslovované firmy'!$D:$D,E$2,'Oslovované firmy'!$C:$C,$A13))</f>
         <v/>
       </c>
-      <c r="F13" s="2" t="str">
+      <c r="F13" s="4" t="str">
         <f aca="false">IF($A13="","",COUNTIFS('Oslovované firmy'!$D:$D,F$2,'Oslovované firmy'!$C:$C,$A13))</f>
         <v/>
       </c>
-      <c r="G13" s="2" t="str">
+      <c r="G13" s="4" t="str">
         <f aca="false">IF($A13="","",COUNTIFS('Oslovované firmy'!$D:$D,G$2,'Oslovované firmy'!$C:$C,$A13))</f>
         <v/>
       </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="2" t="str">
+      <c r="A14" s="13"/>
+      <c r="B14" s="4" t="str">
         <f aca="false">IF(A14="","",COUNTIF('Oslovované firmy'!C:C,A14))</f>
         <v/>
       </c>
-      <c r="C14" s="2" t="str">
+      <c r="C14" s="4" t="str">
         <f aca="false">IF($A14="","",COUNTIFS('Oslovované firmy'!$D:$D,C$2,'Oslovované firmy'!$C:$C,$A14))</f>
         <v/>
       </c>
-      <c r="D14" s="2" t="str">
+      <c r="D14" s="4" t="str">
         <f aca="false">IF($A14="","",COUNTIFS('Oslovované firmy'!$D:$D,D$2,'Oslovované firmy'!$C:$C,$A14))</f>
         <v/>
       </c>
-      <c r="E14" s="2" t="str">
+      <c r="E14" s="4" t="str">
         <f aca="false">IF($A14="","",COUNTIFS('Oslovované firmy'!$D:$D,E$2,'Oslovované firmy'!$C:$C,$A14))</f>
         <v/>
       </c>
-      <c r="F14" s="2" t="str">
+      <c r="F14" s="4" t="str">
         <f aca="false">IF($A14="","",COUNTIFS('Oslovované firmy'!$D:$D,F$2,'Oslovované firmy'!$C:$C,$A14))</f>
         <v/>
       </c>
-      <c r="G14" s="2" t="str">
+      <c r="G14" s="4" t="str">
         <f aca="false">IF($A14="","",COUNTIFS('Oslovované firmy'!$D:$D,G$2,'Oslovované firmy'!$C:$C,$A14))</f>
         <v/>
       </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="2" t="str">
+      <c r="A15" s="13"/>
+      <c r="B15" s="4" t="str">
         <f aca="false">IF(A15="","",COUNTIF('Oslovované firmy'!C:C,A15))</f>
         <v/>
       </c>
-      <c r="C15" s="2" t="str">
+      <c r="C15" s="4" t="str">
         <f aca="false">IF($A15="","",COUNTIFS('Oslovované firmy'!$D:$D,C$2,'Oslovované firmy'!$C:$C,$A15))</f>
         <v/>
       </c>
-      <c r="D15" s="2" t="str">
+      <c r="D15" s="4" t="str">
         <f aca="false">IF($A15="","",COUNTIFS('Oslovované firmy'!$D:$D,D$2,'Oslovované firmy'!$C:$C,$A15))</f>
         <v/>
       </c>
-      <c r="E15" s="2" t="str">
+      <c r="E15" s="4" t="str">
         <f aca="false">IF($A15="","",COUNTIFS('Oslovované firmy'!$D:$D,E$2,'Oslovované firmy'!$C:$C,$A15))</f>
         <v/>
       </c>
-      <c r="F15" s="2" t="str">
+      <c r="F15" s="4" t="str">
         <f aca="false">IF($A15="","",COUNTIFS('Oslovované firmy'!$D:$D,F$2,'Oslovované firmy'!$C:$C,$A15))</f>
         <v/>
       </c>
-      <c r="G15" s="2" t="str">
+      <c r="G15" s="4" t="str">
         <f aca="false">IF($A15="","",COUNTIFS('Oslovované firmy'!$D:$D,G$2,'Oslovované firmy'!$C:$C,$A15))</f>
         <v/>
       </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="2" t="str">
+      <c r="A16" s="13"/>
+      <c r="B16" s="4" t="str">
         <f aca="false">IF(A16="","",COUNTIF('Oslovované firmy'!C:C,A16))</f>
         <v/>
       </c>
-      <c r="C16" s="2" t="str">
+      <c r="C16" s="4" t="str">
         <f aca="false">IF($A16="","",COUNTIFS('Oslovované firmy'!$D:$D,C$2,'Oslovované firmy'!$C:$C,$A16))</f>
         <v/>
       </c>
-      <c r="D16" s="2" t="str">
+      <c r="D16" s="4" t="str">
         <f aca="false">IF($A16="","",COUNTIFS('Oslovované firmy'!$D:$D,D$2,'Oslovované firmy'!$C:$C,$A16))</f>
         <v/>
       </c>
-      <c r="E16" s="2" t="str">
+      <c r="E16" s="4" t="str">
         <f aca="false">IF($A16="","",COUNTIFS('Oslovované firmy'!$D:$D,E$2,'Oslovované firmy'!$C:$C,$A16))</f>
         <v/>
       </c>
-      <c r="F16" s="2" t="str">
+      <c r="F16" s="4" t="str">
         <f aca="false">IF($A16="","",COUNTIFS('Oslovované firmy'!$D:$D,F$2,'Oslovované firmy'!$C:$C,$A16))</f>
         <v/>
       </c>
-      <c r="G16" s="2" t="str">
+      <c r="G16" s="4" t="str">
         <f aca="false">IF($A16="","",COUNTIFS('Oslovované firmy'!$D:$D,G$2,'Oslovované firmy'!$C:$C,$A16))</f>
         <v/>
       </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="2" t="str">
@@ -2644,7 +2778,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7KuVERll+CZmZFhcDthaH0w+3GeOMdygNB4EiO/VCDrk0uJrsOpHHp3iUL4StGHP9ewMZk7q8DDsXA0U2VQxYg==" saltValue="vihn2sWRS+FAyzAtMSF0KA==" spinCount="100000" sheet="true" objects="true" scenarios="true"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2661,12 +2794,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="M10" activeCellId="0" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2675,243 +2808,525 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="11.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="13" width="11.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="17" width="11.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="29.85"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="10" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="13" width="7.39"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="32.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="14" style="1" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="13"/>
+      <c r="J3" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="D5" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="D6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="16"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
+      <c r="E7" s="13"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16" t="s">
+      <c r="B12" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D12" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16" t="s">
+      <c r="E12" s="13"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="13"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="16"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="s">
+      <c r="C17" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16" t="s">
+      <c r="I17" s="13"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16" t="s">
+      <c r="E18" s="13"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="13"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="13"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I21" s="13"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I22" s="13"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" s="13"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" s="13"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="13"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" s="13"/>
     </row>
   </sheetData>
   <dataValidations count="5">
@@ -2938,6 +3353,11 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId2" display="press@factorio.com"/>
+    <hyperlink ref="J3" r:id="rId3" display="https://warhorsestudios.cz/en/"/>
+    <hyperlink ref="B7" r:id="rId4" display="press@factorio.com"/>
+    <hyperlink ref="B12" r:id="rId5" display="press@factorio.com"/>
+    <hyperlink ref="B17" r:id="rId6" display="press@factorio.com"/>
+    <hyperlink ref="B22" r:id="rId7" display="press@factorio.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2946,12 +3366,12 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId8"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{50A559F8-20A8-4A80-9E42-C0C4369EA1AC}">
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{C517488A-1D5D-4765-A145-4813F7C12B8C}">
             <xm:f>NOT(ISERROR(SEARCH('Seznam úžasníků'!$I$2,D1)))</xm:f>
             <xm:f>'Seznam úžasníků'!$I$2</xm:f>
             <x14:dxf>
@@ -2962,7 +3382,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{6E3055F5-5B74-4664-91E7-636EE02EB85E}">
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{ADAB18E7-3DCA-4FB3-A9BF-F6E73FD5F45A}">
             <xm:f>NOT(ISERROR(SEARCH('Seznam úžasníků'!$I$3,D1)))</xm:f>
             <xm:f>'Seznam úžasníků'!$I$3</xm:f>
             <x14:dxf>
@@ -2973,7 +3393,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{1020BE57-2D7B-4BB9-9055-3F90E8613860}">
+          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{C2D69E18-B588-4D45-9090-7958DDA31273}">
             <xm:f>NOT(ISERROR(SEARCH('Seznam úžasníků'!$I$4,D1)))</xm:f>
             <xm:f>'Seznam úžasníků'!$I$4</xm:f>
             <x14:dxf>
@@ -2984,7 +3404,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{6B4670EA-3EA8-4448-A36A-F0CB7E44612B}">
+          <x14:cfRule type="containsText" priority="5" operator="containsText" id="{E0286A70-20C0-42E9-92E5-1E2C4B7A73D3}">
             <xm:f>NOT(ISERROR(SEARCH('Seznam úžasníků'!$I$5,D1)))</xm:f>
             <xm:f>'Seznam úžasníků'!$I$5</xm:f>
             <x14:dxf>
@@ -2998,7 +3418,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{FF43391C-189C-499B-9D95-CBF8D44E97F0}">
+          <x14:cfRule type="containsText" priority="6" operator="containsText" id="{671216F7-5D1B-4631-8E90-ECC0C6CC36BC}">
             <xm:f>NOT(ISERROR(SEARCH('Seznam úžasníků'!$I$6,D1)))</xm:f>
             <xm:f>'Seznam úžasníků'!$I$6</xm:f>
             <x14:dxf>
@@ -3015,7 +3435,7 @@
           <xm:sqref>D:D</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{B121A989-70F8-468A-BA35-59FE3993DF1F}">
+          <x14:cfRule type="containsText" priority="7" operator="containsText" id="{6931CF64-7034-4686-A094-FFC03E8231BE}">
             <xm:f>NOT(ISERROR(SEARCH('Seznam úžasníků'!$P$4,E1)))</xm:f>
             <xm:f>'Seznam úžasníků'!$P$4</xm:f>
             <x14:dxf>
@@ -3026,7 +3446,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{6CC967C2-CC6B-468B-B600-CE499146702A}">
+          <x14:cfRule type="containsText" priority="8" operator="containsText" id="{2638BD30-BC21-45B6-A15F-DFAD5D1620E1}">
             <xm:f>NOT(ISERROR(SEARCH('Seznam úžasníků'!$P$3,E1)))</xm:f>
             <xm:f>'Seznam úžasníků'!$P$3</xm:f>
             <x14:dxf>
@@ -3040,7 +3460,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{88D16179-6612-40E5-B167-F3A275292FE7}">
+          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{9DED55E9-403F-46C7-9E23-76BDD253D7B6}">
             <xm:f>NOT(ISERROR(SEARCH('Seznam úžasníků'!$P$2,E1)))</xm:f>
             <xm:f>'Seznam úžasníků'!$P$2</xm:f>
             <x14:dxf>
@@ -3054,7 +3474,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{727E60F5-A37E-45B1-A853-DA2485AC173C}">
+          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{111D7561-8E39-4316-BE1B-F913BBEB3326}">
             <xm:f>NOT(ISERROR(SEARCH('Seznam úžasníků'!$P$5,E1)))</xm:f>
             <xm:f>'Seznam úžasníků'!$P$5</xm:f>
             <x14:dxf>
@@ -3089,124 +3509,124 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.63671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="19" width="19.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="22" width="19.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="15.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="10.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="19" width="16.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="22" width="16.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="13.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="10.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="19" width="16.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="22" width="16.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="13.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="10.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="19" width="16.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="22" width="16.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="13.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="10.28"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="19" t="n">
+      <c r="A1" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="22" t="n">
         <f aca="false">B3+F3-J3-N3</f>
         <v>-100102</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="19" t="n">
+      <c r="A2" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="22" t="n">
         <f aca="false">B3-J3</f>
         <v>-102</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="19" t="n">
+      <c r="A3" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="22" t="n">
         <f aca="false">SUM(A$5:A$1048576)</f>
         <v>0</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="19" t="n">
+      <c r="E3" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="22" t="n">
         <f aca="false">SUM(E$5:E$1048576)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="19" t="n">
+      <c r="I3" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="22" t="n">
         <f aca="false">SUM(I$5:I$1048576)</f>
         <v>102</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="19" t="n">
+      <c r="M3" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="22" t="n">
         <f aca="false">SUM(M$5:M$1048576)</f>
         <v>100000</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19" t="s">
-        <v>21</v>
+      <c r="A4" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>21</v>
+        <v>47</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>21</v>
+        <v>47</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" s="19" t="s">
-        <v>21</v>
+        <v>47</v>
+      </c>
+      <c r="M4" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I5" s="19" t="n">
+      <c r="I5" s="22" t="n">
         <v>102</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="19" t="n">
+        <v>50</v>
+      </c>
+      <c r="M5" s="22" t="n">
         <v>100000</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
